--- a/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>23304</v>
+        <v>23403</v>
       </c>
       <c r="D2">
-        <v>7390</v>
+        <v>7395</v>
       </c>
       <c r="E2">
-        <v>46528107</v>
+        <v>46865437</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -727,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>40337</v>
+        <v>40459</v>
       </c>
       <c r="D4">
-        <v>11379</v>
+        <v>11382</v>
       </c>
       <c r="E4">
-        <v>84607391</v>
+        <v>85331007</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>1007652</v>
+        <v>1008791</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D6">
         <v>564</v>
       </c>
       <c r="E6">
-        <v>2681398</v>
+        <v>2683453</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>88360</v>
+        <v>88525</v>
       </c>
       <c r="D7">
-        <v>32037</v>
+        <v>32040</v>
       </c>
       <c r="E7">
-        <v>142187429</v>
+        <v>142607506</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>155447</v>
+        <v>156055</v>
       </c>
       <c r="D8">
-        <v>39587</v>
+        <v>39598</v>
       </c>
       <c r="E8">
-        <v>457320898</v>
+        <v>461727877</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>58317</v>
+        <v>58440</v>
       </c>
       <c r="D9">
-        <v>9890</v>
+        <v>9892</v>
       </c>
       <c r="E9">
-        <v>143848377</v>
+        <v>144613852</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -901,13 +901,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>217917</v>
+        <v>219021</v>
       </c>
       <c r="D10">
-        <v>29081</v>
+        <v>29088</v>
       </c>
       <c r="E10">
-        <v>1318815180</v>
+        <v>1330071349</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -930,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>21021</v>
+        <v>21073</v>
       </c>
       <c r="D11">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="E11">
-        <v>47707828</v>
+        <v>47913384</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -959,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7939</v>
+        <v>7964</v>
       </c>
       <c r="D12">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E12">
-        <v>15455541</v>
+        <v>15494309</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>32163</v>
+        <v>32279</v>
       </c>
       <c r="D13">
-        <v>8305</v>
+        <v>8309</v>
       </c>
       <c r="E13">
-        <v>72484741</v>
+        <v>72860562</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>100637</v>
+        <v>100972</v>
       </c>
       <c r="D14">
-        <v>24899</v>
+        <v>24906</v>
       </c>
       <c r="E14">
-        <v>282895651</v>
+        <v>285092566</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>47658</v>
+        <v>47816</v>
       </c>
       <c r="D15">
-        <v>11170</v>
+        <v>11176</v>
       </c>
       <c r="E15">
-        <v>146800646</v>
+        <v>147733820</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>109385</v>
+        <v>109883</v>
       </c>
       <c r="D17">
-        <v>19403</v>
+        <v>19407</v>
       </c>
       <c r="E17">
-        <v>215490790</v>
+        <v>217148444</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>58539</v>
+        <v>58578</v>
       </c>
       <c r="D18">
-        <v>23654</v>
+        <v>23656</v>
       </c>
       <c r="E18">
-        <v>79294157</v>
+        <v>79352322</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>86669</v>
+        <v>87005</v>
       </c>
       <c r="D19">
-        <v>13288</v>
+        <v>13293</v>
       </c>
       <c r="E19">
-        <v>247477534</v>
+        <v>248910968</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1191,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>94591</v>
+        <v>94855</v>
       </c>
       <c r="D20">
-        <v>24034</v>
+        <v>24040</v>
       </c>
       <c r="E20">
-        <v>178929480</v>
+        <v>179999717</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>8288</v>
+        <v>8327</v>
       </c>
       <c r="D21">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="E21">
-        <v>24631411</v>
+        <v>24852644</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>10793</v>
+        <v>10834</v>
       </c>
       <c r="D23">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="E23">
-        <v>20028347</v>
+        <v>20172924</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1336,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D25">
         <v>252</v>
       </c>
       <c r="E25">
-        <v>1404363</v>
+        <v>1407363</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>20310</v>
+        <v>20346</v>
       </c>
       <c r="D26">
-        <v>8014</v>
+        <v>8015</v>
       </c>
       <c r="E26">
-        <v>31299959</v>
+        <v>31410795</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1394,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>45460</v>
+        <v>45668</v>
       </c>
       <c r="D27">
-        <v>12169</v>
+        <v>12174</v>
       </c>
       <c r="E27">
-        <v>112785831</v>
+        <v>113943959</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1423,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>6205</v>
+        <v>6222</v>
       </c>
       <c r="D28">
         <v>1518</v>
       </c>
       <c r="E28">
-        <v>15242699</v>
+        <v>15315994</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1452,13 +1452,13 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>61276</v>
+        <v>61600</v>
       </c>
       <c r="D29">
         <v>8111</v>
       </c>
       <c r="E29">
-        <v>330817689</v>
+        <v>333738664</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>3702</v>
+        <v>3711</v>
       </c>
       <c r="D30">
         <v>848</v>
       </c>
       <c r="E30">
-        <v>8293674</v>
+        <v>8408391</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1510,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D31">
         <v>454</v>
       </c>
       <c r="E31">
-        <v>2809208</v>
+        <v>2812208</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1539,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>6210</v>
+        <v>6225</v>
       </c>
       <c r="D32">
         <v>1701</v>
       </c>
       <c r="E32">
-        <v>11235156</v>
+        <v>11270458</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>19043</v>
+        <v>19102</v>
       </c>
       <c r="D33">
         <v>4841</v>
       </c>
       <c r="E33">
-        <v>54011778</v>
+        <v>54338300</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>9310</v>
+        <v>9332</v>
       </c>
       <c r="D34">
         <v>2269</v>
       </c>
       <c r="E34">
-        <v>26037546</v>
+        <v>26149669</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>14258</v>
+        <v>14291</v>
       </c>
       <c r="D36">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="E36">
-        <v>23542666</v>
+        <v>23634785</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>12768</v>
+        <v>12773</v>
       </c>
       <c r="D37">
         <v>5277</v>
       </c>
       <c r="E37">
-        <v>16895705</v>
+        <v>16903205</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1713,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>21580</v>
+        <v>21666</v>
       </c>
       <c r="D38">
         <v>3215</v>
       </c>
       <c r="E38">
-        <v>60664528</v>
+        <v>61046351</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1742,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>28214</v>
+        <v>28332</v>
       </c>
       <c r="D39">
-        <v>7279</v>
+        <v>7282</v>
       </c>
       <c r="E39">
-        <v>52595874</v>
+        <v>52929041</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>5572</v>
+        <v>5587</v>
       </c>
       <c r="D40">
         <v>1854</v>
       </c>
       <c r="E40">
-        <v>12315283</v>
+        <v>12379031</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1829,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>14631</v>
+        <v>14685</v>
       </c>
       <c r="D42">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E42">
-        <v>25853748</v>
+        <v>26039278</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1916,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>20553</v>
+        <v>20582</v>
       </c>
       <c r="D45">
-        <v>9048</v>
+        <v>9050</v>
       </c>
       <c r="E45">
-        <v>31175121</v>
+        <v>31260383</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>48335</v>
+        <v>48573</v>
       </c>
       <c r="D46">
-        <v>13126</v>
+        <v>13131</v>
       </c>
       <c r="E46">
-        <v>130289271</v>
+        <v>132187753</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>8739</v>
+        <v>8764</v>
       </c>
       <c r="D47">
         <v>1848</v>
       </c>
       <c r="E47">
-        <v>21462569</v>
+        <v>21588380</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>83640</v>
+        <v>84098</v>
       </c>
       <c r="D48">
-        <v>11232</v>
+        <v>11233</v>
       </c>
       <c r="E48">
-        <v>495142840</v>
+        <v>499625294</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2032,13 +2032,13 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>6405</v>
+        <v>6423</v>
       </c>
       <c r="D49">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E49">
-        <v>16133360</v>
+        <v>16242143</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2061,13 +2061,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="D50">
         <v>619</v>
       </c>
       <c r="E50">
-        <v>4936652</v>
+        <v>4943482</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2090,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>8378</v>
+        <v>8400</v>
       </c>
       <c r="D51">
         <v>2405</v>
       </c>
       <c r="E51">
-        <v>16221232</v>
+        <v>16304587</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2119,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>28697</v>
+        <v>28807</v>
       </c>
       <c r="D52">
-        <v>7374</v>
+        <v>7376</v>
       </c>
       <c r="E52">
-        <v>86355102</v>
+        <v>87187114</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>11246</v>
+        <v>11277</v>
       </c>
       <c r="D53">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="E53">
-        <v>33891294</v>
+        <v>34116844</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2177,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>15369</v>
+        <v>15416</v>
       </c>
       <c r="D54">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="E54">
-        <v>27781351</v>
+        <v>27935575</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2206,13 +2206,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>20721</v>
+        <v>20738</v>
       </c>
       <c r="D55">
         <v>8862</v>
       </c>
       <c r="E55">
-        <v>27932546</v>
+        <v>27973760</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2235,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>26422</v>
+        <v>26527</v>
       </c>
       <c r="D56">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E56">
-        <v>77260831</v>
+        <v>78182649</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>31719</v>
+        <v>31841</v>
       </c>
       <c r="D57">
-        <v>8503</v>
+        <v>8508</v>
       </c>
       <c r="E57">
-        <v>61245757</v>
+        <v>61686558</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -2293,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>5680</v>
+        <v>5697</v>
       </c>
       <c r="D58">
         <v>1771</v>
       </c>
       <c r="E58">
-        <v>17821003</v>
+        <v>17937617</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2322,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>9251</v>
+        <v>9273</v>
       </c>
       <c r="D59">
         <v>2651</v>
       </c>
       <c r="E59">
-        <v>16479368</v>
+        <v>16519563</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>19301</v>
+        <v>19329</v>
       </c>
       <c r="D62">
         <v>7700</v>
       </c>
       <c r="E62">
-        <v>30172783</v>
+        <v>30213548</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>35696</v>
+        <v>35821</v>
       </c>
       <c r="D63">
-        <v>9791</v>
+        <v>9794</v>
       </c>
       <c r="E63">
-        <v>87083437</v>
+        <v>87715316</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2467,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>9102</v>
+        <v>9112</v>
       </c>
       <c r="D64">
         <v>1935</v>
       </c>
       <c r="E64">
-        <v>20309325</v>
+        <v>20327824</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>48363</v>
+        <v>48595</v>
       </c>
       <c r="D65">
         <v>6535</v>
       </c>
       <c r="E65">
-        <v>256539485</v>
+        <v>258825315</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>4091</v>
+        <v>4098</v>
       </c>
       <c r="D66">
         <v>952</v>
       </c>
       <c r="E66">
-        <v>9966317</v>
+        <v>10044518</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D67">
         <v>394</v>
       </c>
       <c r="E67">
-        <v>2897410</v>
+        <v>2898910</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>6226</v>
+        <v>6237</v>
       </c>
       <c r="D68">
         <v>1661</v>
       </c>
       <c r="E68">
-        <v>11795942</v>
+        <v>11820106</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2612,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>17590</v>
+        <v>17639</v>
       </c>
       <c r="D69">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="E69">
-        <v>47400399</v>
+        <v>47635015</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2641,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>9224</v>
+        <v>9247</v>
       </c>
       <c r="D70">
         <v>2281</v>
       </c>
       <c r="E70">
-        <v>25310680</v>
+        <v>25475123</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>10901</v>
+        <v>10928</v>
       </c>
       <c r="D71">
         <v>2281</v>
       </c>
       <c r="E71">
-        <v>19947136</v>
+        <v>20003777</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -2699,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>10825</v>
+        <v>10833</v>
       </c>
       <c r="D72">
         <v>4519</v>
       </c>
       <c r="E72">
-        <v>14193751</v>
+        <v>14203488</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>19267</v>
+        <v>19326</v>
       </c>
       <c r="D73">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="E73">
-        <v>56559416</v>
+        <v>56795259</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -2757,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>24835</v>
+        <v>24913</v>
       </c>
       <c r="D74">
-        <v>6599</v>
+        <v>6601</v>
       </c>
       <c r="E74">
-        <v>45722666</v>
+        <v>45960124</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>4724</v>
+        <v>4733</v>
       </c>
       <c r="D75">
         <v>1134</v>
       </c>
       <c r="E75">
-        <v>9414016</v>
+        <v>9437649</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -2815,13 +2815,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>3916</v>
+        <v>3928</v>
       </c>
       <c r="D76">
         <v>909</v>
       </c>
       <c r="E76">
-        <v>7895106</v>
+        <v>7945467</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -2844,13 +2844,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <v>21</v>
       </c>
       <c r="E77">
-        <v>130064</v>
+        <v>140064</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
@@ -2873,13 +2873,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>7426</v>
+        <v>7430</v>
       </c>
       <c r="D78">
         <v>2452</v>
       </c>
       <c r="E78">
-        <v>12011429</v>
+        <v>12019905</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -2902,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>12171</v>
+        <v>12208</v>
       </c>
       <c r="D79">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="E79">
-        <v>42124756</v>
+        <v>42412540</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="D80">
         <v>401</v>
       </c>
       <c r="E80">
-        <v>8025533</v>
+        <v>8066747</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -2960,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>21479</v>
+        <v>21550</v>
       </c>
       <c r="D81">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="E81">
-        <v>129548581</v>
+        <v>130266966</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -2989,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D82">
         <v>190</v>
       </c>
       <c r="E82">
-        <v>2811899</v>
+        <v>2830308</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>3510</v>
+        <v>3522</v>
       </c>
       <c r="D84">
         <v>699</v>
       </c>
       <c r="E84">
-        <v>9993880</v>
+        <v>10057268</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -3076,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>9037</v>
+        <v>9078</v>
       </c>
       <c r="D85">
         <v>1837</v>
       </c>
       <c r="E85">
-        <v>36913604</v>
+        <v>37248168</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>4545</v>
+        <v>4552</v>
       </c>
       <c r="D86">
         <v>930</v>
       </c>
       <c r="E86">
-        <v>12978959</v>
+        <v>13008551</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -3134,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>2426</v>
+        <v>2434</v>
       </c>
       <c r="D87">
         <v>406</v>
       </c>
       <c r="E87">
-        <v>4518519</v>
+        <v>4553087</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="D88">
         <v>923</v>
       </c>
       <c r="E88">
-        <v>3081395</v>
+        <v>3083895</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -3192,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>3835</v>
+        <v>3848</v>
       </c>
       <c r="D89">
         <v>549</v>
       </c>
       <c r="E89">
-        <v>13224325</v>
+        <v>13279025</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3221,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>5457</v>
+        <v>5478</v>
       </c>
       <c r="D90">
         <v>1279</v>
       </c>
       <c r="E90">
-        <v>10074799</v>
+        <v>10158582</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
@@ -3250,13 +3250,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>38388</v>
+        <v>38712</v>
       </c>
       <c r="D91">
-        <v>12759</v>
+        <v>12770</v>
       </c>
       <c r="E91">
-        <v>188752052</v>
+        <v>191077162</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3279,13 +3279,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>6</v>
       </c>
       <c r="E92">
-        <v>26558</v>
+        <v>33213</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>19892</v>
+        <v>19972</v>
       </c>
       <c r="D93">
-        <v>5692</v>
+        <v>5696</v>
       </c>
       <c r="E93">
-        <v>49739177</v>
+        <v>50062653</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3366,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D95">
         <v>529</v>
       </c>
       <c r="E95">
-        <v>3027680</v>
+        <v>3030680</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>42530</v>
+        <v>42596</v>
       </c>
       <c r="D96">
-        <v>15824</v>
+        <v>15825</v>
       </c>
       <c r="E96">
-        <v>66237254</v>
+        <v>66373520</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3424,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>85345</v>
+        <v>85786</v>
       </c>
       <c r="D97">
-        <v>22438</v>
+        <v>22454</v>
       </c>
       <c r="E97">
-        <v>220943124</v>
+        <v>223861819</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>18985</v>
+        <v>19036</v>
       </c>
       <c r="D98">
         <v>3597</v>
       </c>
       <c r="E98">
-        <v>44466423</v>
+        <v>44682491</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -3482,13 +3482,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>105692</v>
+        <v>106278</v>
       </c>
       <c r="D99">
-        <v>13915</v>
+        <v>13919</v>
       </c>
       <c r="E99">
-        <v>643006352</v>
+        <v>649056184</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -3511,13 +3511,13 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>8214</v>
+        <v>8245</v>
       </c>
       <c r="D100">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E100">
-        <v>19093569</v>
+        <v>19225498</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
@@ -3540,13 +3540,13 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>3775</v>
+        <v>3782</v>
       </c>
       <c r="D101">
         <v>1054</v>
       </c>
       <c r="E101">
-        <v>6514201</v>
+        <v>6534111</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -3569,13 +3569,13 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>11876</v>
+        <v>11905</v>
       </c>
       <c r="D102">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E102">
-        <v>23310560</v>
+        <v>23429061</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -3598,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>41488</v>
+        <v>41655</v>
       </c>
       <c r="D103">
-        <v>10479</v>
+        <v>10481</v>
       </c>
       <c r="E103">
-        <v>105949339</v>
+        <v>106985064</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>18444</v>
+        <v>18488</v>
       </c>
       <c r="D104">
         <v>4519</v>
       </c>
       <c r="E104">
-        <v>52073677</v>
+        <v>52312091</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -3656,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105">
-        <v>75036</v>
+        <v>80598</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>23313</v>
+        <v>23392</v>
       </c>
       <c r="D106">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="E106">
-        <v>41384877</v>
+        <v>41649627</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>26059</v>
+        <v>26077</v>
       </c>
       <c r="D107">
         <v>11125</v>
       </c>
       <c r="E107">
-        <v>35488444</v>
+        <v>35509550</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>36415</v>
+        <v>36546</v>
       </c>
       <c r="D108">
-        <v>5377</v>
+        <v>5379</v>
       </c>
       <c r="E108">
-        <v>104572062</v>
+        <v>105171280</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>57887</v>
+        <v>58127</v>
       </c>
       <c r="D109">
-        <v>14732</v>
+        <v>14734</v>
       </c>
       <c r="E109">
-        <v>107625357</v>
+        <v>108430618</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>13505</v>
+        <v>13540</v>
       </c>
       <c r="D110">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="E110">
-        <v>21340080</v>
+        <v>21385296</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>4668</v>
+        <v>4673</v>
       </c>
       <c r="D111">
         <v>1190</v>
       </c>
       <c r="E111">
-        <v>8300007</v>
+        <v>8311486</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>6675</v>
+        <v>6678</v>
       </c>
       <c r="D114">
         <v>2157</v>
       </c>
       <c r="E114">
-        <v>10252709</v>
+        <v>10257209</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -3946,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>12649</v>
+        <v>12691</v>
       </c>
       <c r="D115">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="E115">
-        <v>22061732</v>
+        <v>22173099</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>4013</v>
+        <v>4027</v>
       </c>
       <c r="D116">
         <v>729</v>
       </c>
       <c r="E116">
-        <v>7562868</v>
+        <v>7589850</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>13795</v>
+        <v>13842</v>
       </c>
       <c r="D117">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="E117">
-        <v>30914536</v>
+        <v>31170274</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="D118">
         <v>304</v>
       </c>
       <c r="E118">
-        <v>2992080</v>
+        <v>2997262</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -4062,13 +4062,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D119">
         <v>107</v>
       </c>
       <c r="E119">
-        <v>672598</v>
+        <v>674098</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -4091,13 +4091,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="D120">
         <v>436</v>
       </c>
       <c r="E120">
-        <v>3079371</v>
+        <v>3097031</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -4120,13 +4120,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>4739</v>
+        <v>4749</v>
       </c>
       <c r="D121">
         <v>1256</v>
       </c>
       <c r="E121">
-        <v>8157310</v>
+        <v>8177807</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4149,13 +4149,13 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>7308</v>
+        <v>7317</v>
       </c>
       <c r="D122">
         <v>1375</v>
       </c>
       <c r="E122">
-        <v>16986422</v>
+        <v>17031860</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="D123">
         <v>656</v>
       </c>
       <c r="E123">
-        <v>3847892</v>
+        <v>3850433</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>3197</v>
+        <v>3210</v>
       </c>
       <c r="D125">
         <v>482</v>
       </c>
       <c r="E125">
-        <v>7452256</v>
+        <v>7498162</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4265,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>4154</v>
+        <v>4163</v>
       </c>
       <c r="D126">
         <v>1122</v>
       </c>
       <c r="E126">
-        <v>5967353</v>
+        <v>5985374</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>5575</v>
+        <v>5582</v>
       </c>
       <c r="D127">
         <v>808</v>
       </c>
       <c r="E127">
-        <v>9491705</v>
+        <v>9500559</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="D129">
         <v>396</v>
       </c>
       <c r="E129">
-        <v>4650771</v>
+        <v>4656771</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>6212</v>
+        <v>6217</v>
       </c>
       <c r="D131">
         <v>1072</v>
       </c>
       <c r="E131">
-        <v>14093038</v>
+        <v>14100212</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>5188</v>
+        <v>5199</v>
       </c>
       <c r="D132">
         <v>959</v>
       </c>
       <c r="E132">
-        <v>10932520</v>
+        <v>10949019</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -4468,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="D133">
         <v>289</v>
       </c>
       <c r="E133">
-        <v>4363588</v>
+        <v>4365800</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>3989</v>
+        <v>3995</v>
       </c>
       <c r="D134">
         <v>569</v>
       </c>
       <c r="E134">
-        <v>10428567</v>
+        <v>10439237</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4526,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D135">
         <v>83</v>
       </c>
       <c r="E135">
-        <v>1362332</v>
+        <v>1372332</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -4613,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="D138">
         <v>422</v>
       </c>
       <c r="E138">
-        <v>4843701</v>
+        <v>4848201</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="D139">
         <v>388</v>
       </c>
       <c r="E139">
-        <v>6435888</v>
+        <v>6448887</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -4729,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D142">
         <v>134</v>
       </c>
       <c r="E142">
-        <v>2212314</v>
+        <v>2232314</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -4758,13 +4758,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D143">
         <v>279</v>
       </c>
       <c r="E143">
-        <v>3050015</v>
+        <v>3051515</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>6486</v>
+        <v>6509</v>
       </c>
       <c r="D144">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E144">
-        <v>18865086</v>
+        <v>18949326</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -4845,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>14882</v>
+        <v>14918</v>
       </c>
       <c r="D146">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="E146">
-        <v>30264000</v>
+        <v>30600638</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>34731</v>
+        <v>34792</v>
       </c>
       <c r="D149">
         <v>12991</v>
       </c>
       <c r="E149">
-        <v>54306108</v>
+        <v>54451335</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>81354</v>
+        <v>81655</v>
       </c>
       <c r="D150">
-        <v>20897</v>
+        <v>20902</v>
       </c>
       <c r="E150">
-        <v>191442305</v>
+        <v>193470966</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>31070</v>
+        <v>31141</v>
       </c>
       <c r="D151">
-        <v>5213</v>
+        <v>5215</v>
       </c>
       <c r="E151">
-        <v>64238271</v>
+        <v>64423614</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <v>98216</v>
+        <v>98675</v>
       </c>
       <c r="D152">
-        <v>13338</v>
+        <v>13342</v>
       </c>
       <c r="E152">
-        <v>546706641</v>
+        <v>550906568</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>7943</v>
+        <v>7962</v>
       </c>
       <c r="D153">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E153">
-        <v>17726616</v>
+        <v>17780183</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>3753</v>
+        <v>3759</v>
       </c>
       <c r="D154">
         <v>957</v>
       </c>
       <c r="E154">
-        <v>6925890</v>
+        <v>6933498</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>10280</v>
+        <v>10312</v>
       </c>
       <c r="D155">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E155">
-        <v>21084186</v>
+        <v>21171340</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>40252</v>
+        <v>40387</v>
       </c>
       <c r="D156">
-        <v>9876</v>
+        <v>9879</v>
       </c>
       <c r="E156">
-        <v>104943983</v>
+        <v>105634299</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>17761</v>
+        <v>17808</v>
       </c>
       <c r="D157">
-        <v>4214</v>
+        <v>4217</v>
       </c>
       <c r="E157">
-        <v>51338286</v>
+        <v>51624912</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="C159">
-        <v>19308</v>
+        <v>19346</v>
       </c>
       <c r="D159">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E159">
-        <v>32844812</v>
+        <v>32899576</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>26182</v>
+        <v>26197</v>
       </c>
       <c r="D160">
         <v>11367</v>
       </c>
       <c r="E160">
-        <v>35754223</v>
+        <v>35773331</v>
       </c>
       <c r="F160" t="s">
         <v>19</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>35616</v>
+        <v>35730</v>
       </c>
       <c r="D161">
-        <v>5222</v>
+        <v>5225</v>
       </c>
       <c r="E161">
-        <v>104942199</v>
+        <v>105696015</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>55029</v>
+        <v>55225</v>
       </c>
       <c r="D162">
-        <v>13964</v>
+        <v>13966</v>
       </c>
       <c r="E162">
-        <v>94497022</v>
+        <v>95099549</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="D163">
         <v>698</v>
       </c>
       <c r="E163">
-        <v>4089103</v>
+        <v>4096103</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>42020</v>
+        <v>42129</v>
       </c>
       <c r="D164">
-        <v>10884</v>
+        <v>10888</v>
       </c>
       <c r="E164">
-        <v>98622786</v>
+        <v>99176545</v>
       </c>
       <c r="F164" t="s">
         <v>20</v>
@@ -5396,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D165">
         <v>152</v>
       </c>
       <c r="E165">
-        <v>1972329</v>
+        <v>1975329</v>
       </c>
       <c r="F165" t="s">
         <v>20</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>94733</v>
+        <v>94857</v>
       </c>
       <c r="D167">
-        <v>31984</v>
+        <v>31988</v>
       </c>
       <c r="E167">
-        <v>165933689</v>
+        <v>166284791</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>235188</v>
+        <v>235865</v>
       </c>
       <c r="D168">
-        <v>57011</v>
+        <v>57027</v>
       </c>
       <c r="E168">
-        <v>700575786</v>
+        <v>705376285</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>464334</v>
+        <v>465109</v>
       </c>
       <c r="D169">
-        <v>60360</v>
+        <v>60369</v>
       </c>
       <c r="E169">
-        <v>1041430876</v>
+        <v>1043716083</v>
       </c>
       <c r="F169" t="s">
         <v>20</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>275343</v>
+        <v>276611</v>
       </c>
       <c r="D170">
-        <v>37283</v>
+        <v>37290</v>
       </c>
       <c r="E170">
-        <v>1918256741</v>
+        <v>1933588482</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="C171">
-        <v>93165</v>
+        <v>93462</v>
       </c>
       <c r="D171">
-        <v>19865</v>
+        <v>19870</v>
       </c>
       <c r="E171">
-        <v>277669901</v>
+        <v>280072364</v>
       </c>
       <c r="F171" t="s">
         <v>20</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>18536</v>
+        <v>18606</v>
       </c>
       <c r="D172">
-        <v>4268</v>
+        <v>4272</v>
       </c>
       <c r="E172">
-        <v>45208431</v>
+        <v>45598999</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>46301</v>
+        <v>46463</v>
       </c>
       <c r="D173">
-        <v>11405</v>
+        <v>11410</v>
       </c>
       <c r="E173">
-        <v>111860753</v>
+        <v>112504340</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>299112</v>
+        <v>299905</v>
       </c>
       <c r="D174">
-        <v>68602</v>
+        <v>68624</v>
       </c>
       <c r="E174">
-        <v>708822734</v>
+        <v>712623763</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>97735</v>
+        <v>98034</v>
       </c>
       <c r="D175">
-        <v>17481</v>
+        <v>17486</v>
       </c>
       <c r="E175">
-        <v>418734760</v>
+        <v>422179428</v>
       </c>
       <c r="F175" t="s">
         <v>20</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>82377</v>
+        <v>82552</v>
       </c>
       <c r="D177">
-        <v>16316</v>
+        <v>16318</v>
       </c>
       <c r="E177">
-        <v>140732076</v>
+        <v>141256146</v>
       </c>
       <c r="F177" t="s">
         <v>20</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>72595</v>
+        <v>72665</v>
       </c>
       <c r="D178">
-        <v>28715</v>
+        <v>28716</v>
       </c>
       <c r="E178">
-        <v>98537525</v>
+        <v>98658945</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>184666</v>
+        <v>185180</v>
       </c>
       <c r="D179">
-        <v>28581</v>
+        <v>28592</v>
       </c>
       <c r="E179">
-        <v>538438305</v>
+        <v>541944346</v>
       </c>
       <c r="F179" t="s">
         <v>20</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>119066</v>
+        <v>119402</v>
       </c>
       <c r="D180">
-        <v>28522</v>
+        <v>28524</v>
       </c>
       <c r="E180">
-        <v>251040883</v>
+        <v>252138968</v>
       </c>
       <c r="F180" t="s">
         <v>20</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>7099</v>
+        <v>7114</v>
       </c>
       <c r="D181">
         <v>1766</v>
       </c>
       <c r="E181">
-        <v>10041262</v>
+        <v>10069351</v>
       </c>
       <c r="F181" t="s">
         <v>21</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>5561</v>
+        <v>5577</v>
       </c>
       <c r="D182">
         <v>1641</v>
       </c>
       <c r="E182">
-        <v>9232222</v>
+        <v>9287380</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>8692</v>
+        <v>8693</v>
       </c>
       <c r="D185">
         <v>3229</v>
       </c>
       <c r="E185">
-        <v>13095338</v>
+        <v>13096838</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="C186">
-        <v>18529</v>
+        <v>18566</v>
       </c>
       <c r="D186">
         <v>5154</v>
       </c>
       <c r="E186">
-        <v>30223686</v>
+        <v>30348026</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="D187">
         <v>776</v>
       </c>
       <c r="E187">
-        <v>5067377</v>
+        <v>5089557</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>13981</v>
+        <v>14022</v>
       </c>
       <c r="D188">
         <v>2485</v>
       </c>
       <c r="E188">
-        <v>32356063</v>
+        <v>32625641</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
@@ -6092,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D189">
         <v>395</v>
       </c>
       <c r="E189">
-        <v>4253401</v>
+        <v>4257189</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6121,13 +6121,13 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D190">
         <v>161</v>
       </c>
       <c r="E190">
-        <v>848322</v>
+        <v>886324</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="D191">
         <v>627</v>
       </c>
       <c r="E191">
-        <v>3338818</v>
+        <v>3394175</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>6229</v>
+        <v>6239</v>
       </c>
       <c r="D192">
         <v>1817</v>
       </c>
       <c r="E192">
-        <v>11403914</v>
+        <v>11458081</v>
       </c>
       <c r="F192" t="s">
         <v>21</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>4365</v>
+        <v>4369</v>
       </c>
       <c r="D193">
         <v>1026</v>
       </c>
       <c r="E193">
-        <v>13834624</v>
+        <v>13885373</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>4993</v>
+        <v>4998</v>
       </c>
       <c r="D194">
         <v>1240</v>
       </c>
       <c r="E194">
-        <v>6902567</v>
+        <v>6913305</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>5649</v>
+        <v>5653</v>
       </c>
       <c r="D195">
         <v>2467</v>
       </c>
       <c r="E195">
-        <v>7983690</v>
+        <v>7989690</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="C196">
-        <v>5480</v>
+        <v>5495</v>
       </c>
       <c r="D196">
         <v>885</v>
       </c>
       <c r="E196">
-        <v>11914862</v>
+        <v>11978190</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="C197">
-        <v>6355</v>
+        <v>6363</v>
       </c>
       <c r="D197">
         <v>1972</v>
       </c>
       <c r="E197">
-        <v>8435892</v>
+        <v>8444385</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="D198">
         <v>770</v>
       </c>
       <c r="E198">
-        <v>4707384</v>
+        <v>4723696</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>3213</v>
+        <v>3224</v>
       </c>
       <c r="D199">
         <v>825</v>
       </c>
       <c r="E199">
-        <v>5709176</v>
+        <v>5744512</v>
       </c>
       <c r="F199" t="s">
         <v>22</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>4114</v>
+        <v>4117</v>
       </c>
       <c r="D202">
         <v>1376</v>
       </c>
       <c r="E202">
-        <v>6646170</v>
+        <v>6650670</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>9346</v>
+        <v>9369</v>
       </c>
       <c r="D203">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="E203">
-        <v>19679728</v>
+        <v>19821276</v>
       </c>
       <c r="F203" t="s">
         <v>22</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>3581</v>
+        <v>3590</v>
       </c>
       <c r="D204">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E204">
-        <v>8101010</v>
+        <v>8112498</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>7272</v>
+        <v>7294</v>
       </c>
       <c r="D205">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E205">
-        <v>22544347</v>
+        <v>22708246</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D206">
         <v>229</v>
       </c>
       <c r="E206">
-        <v>2263744</v>
+        <v>2265244</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D208">
         <v>297</v>
       </c>
       <c r="E208">
-        <v>2265393</v>
+        <v>2280162</v>
       </c>
       <c r="F208" t="s">
         <v>22</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>4196</v>
+        <v>4202</v>
       </c>
       <c r="D209">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E209">
-        <v>8137237</v>
+        <v>8200879</v>
       </c>
       <c r="F209" t="s">
         <v>22</v>
@@ -6701,13 +6701,13 @@
         <v>10</v>
       </c>
       <c r="C210">
-        <v>4714</v>
+        <v>4724</v>
       </c>
       <c r="D210">
         <v>930</v>
       </c>
       <c r="E210">
-        <v>10801125</v>
+        <v>10871492</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -6730,13 +6730,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>2236</v>
+        <v>2242</v>
       </c>
       <c r="D211">
         <v>479</v>
       </c>
       <c r="E211">
-        <v>3397470</v>
+        <v>3442971</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -6759,13 +6759,13 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="D212">
         <v>938</v>
       </c>
       <c r="E212">
-        <v>3248048</v>
+        <v>3248648</v>
       </c>
       <c r="F212" t="s">
         <v>22</v>
@@ -6788,13 +6788,13 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="D213">
         <v>371</v>
       </c>
       <c r="E213">
-        <v>5599509</v>
+        <v>5636459</v>
       </c>
       <c r="F213" t="s">
         <v>22</v>
@@ -6817,13 +6817,13 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>4667</v>
+        <v>4676</v>
       </c>
       <c r="D214">
         <v>1058</v>
       </c>
       <c r="E214">
-        <v>7730653</v>
+        <v>7750809</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -6846,13 +6846,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>8426</v>
+        <v>8445</v>
       </c>
       <c r="D215">
         <v>1084</v>
       </c>
       <c r="E215">
-        <v>18809810</v>
+        <v>18838560</v>
       </c>
       <c r="F215" t="s">
         <v>23</v>
@@ -6875,13 +6875,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D216">
         <v>202</v>
       </c>
       <c r="E216">
-        <v>3423153</v>
+        <v>3433230</v>
       </c>
       <c r="F216" t="s">
         <v>23</v>
@@ -6933,13 +6933,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>4616</v>
+        <v>4621</v>
       </c>
       <c r="D218">
         <v>676</v>
       </c>
       <c r="E218">
-        <v>11453359</v>
+        <v>11459659</v>
       </c>
       <c r="F218" t="s">
         <v>23</v>
@@ -6962,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>20926</v>
+        <v>20950</v>
       </c>
       <c r="D219">
         <v>2781</v>
       </c>
       <c r="E219">
-        <v>49753875</v>
+        <v>49797733</v>
       </c>
       <c r="F219" t="s">
         <v>23</v>
@@ -6991,13 +6991,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>4184</v>
+        <v>4186</v>
       </c>
       <c r="D220">
         <v>521</v>
       </c>
       <c r="E220">
-        <v>10858112</v>
+        <v>10861112</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
@@ -7310,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>5366</v>
+        <v>5383</v>
       </c>
       <c r="D231">
         <v>1731</v>
       </c>
       <c r="E231">
-        <v>10944860</v>
+        <v>11009426</v>
       </c>
       <c r="F231" t="s">
         <v>24</v>
@@ -7368,13 +7368,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>10241</v>
+        <v>10279</v>
       </c>
       <c r="D233">
         <v>2998</v>
       </c>
       <c r="E233">
-        <v>19147761</v>
+        <v>19303656</v>
       </c>
       <c r="F233" t="s">
         <v>24</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>20801</v>
+        <v>20827</v>
       </c>
       <c r="D236">
-        <v>8394</v>
+        <v>8396</v>
       </c>
       <c r="E236">
-        <v>33049270</v>
+        <v>33119148</v>
       </c>
       <c r="F236" t="s">
         <v>24</v>
@@ -7484,13 +7484,13 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>50647</v>
+        <v>50915</v>
       </c>
       <c r="D237">
-        <v>13315</v>
+        <v>13324</v>
       </c>
       <c r="E237">
-        <v>126962538</v>
+        <v>128559273</v>
       </c>
       <c r="F237" t="s">
         <v>24</v>
@@ -7513,13 +7513,13 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>10070</v>
+        <v>10094</v>
       </c>
       <c r="D238">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="E238">
-        <v>24390024</v>
+        <v>24516513</v>
       </c>
       <c r="F238" t="s">
         <v>24</v>
@@ -7542,13 +7542,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>67497</v>
+        <v>67817</v>
       </c>
       <c r="D239">
-        <v>9300</v>
+        <v>9301</v>
       </c>
       <c r="E239">
-        <v>387196744</v>
+        <v>390654590</v>
       </c>
       <c r="F239" t="s">
         <v>24</v>
@@ -7571,13 +7571,13 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>4537</v>
+        <v>4551</v>
       </c>
       <c r="D240">
         <v>1045</v>
       </c>
       <c r="E240">
-        <v>10961114</v>
+        <v>11005582</v>
       </c>
       <c r="F240" t="s">
         <v>24</v>
@@ -7600,13 +7600,13 @@
         <v>10</v>
       </c>
       <c r="C241">
-        <v>2274</v>
+        <v>2285</v>
       </c>
       <c r="D241">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E241">
-        <v>4976495</v>
+        <v>5009186</v>
       </c>
       <c r="F241" t="s">
         <v>24</v>
@@ -7629,13 +7629,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>7466</v>
+        <v>7486</v>
       </c>
       <c r="D242">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="E242">
-        <v>15876813</v>
+        <v>15929180</v>
       </c>
       <c r="F242" t="s">
         <v>24</v>
@@ -7658,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="C243">
-        <v>23781</v>
+        <v>23872</v>
       </c>
       <c r="D243">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="E243">
-        <v>69690151</v>
+        <v>70234964</v>
       </c>
       <c r="F243" t="s">
         <v>24</v>
@@ -7687,13 +7687,13 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>11098</v>
+        <v>11127</v>
       </c>
       <c r="D244">
         <v>2589</v>
       </c>
       <c r="E244">
-        <v>31182739</v>
+        <v>31394677</v>
       </c>
       <c r="F244" t="s">
         <v>24</v>
@@ -7716,13 +7716,13 @@
         <v>10</v>
       </c>
       <c r="C245">
-        <v>13279</v>
+        <v>13312</v>
       </c>
       <c r="D245">
         <v>2690</v>
       </c>
       <c r="E245">
-        <v>22751931</v>
+        <v>22827767</v>
       </c>
       <c r="F245" t="s">
         <v>24</v>
@@ -7745,13 +7745,13 @@
         <v>10</v>
       </c>
       <c r="C246">
-        <v>12859</v>
+        <v>12873</v>
       </c>
       <c r="D246">
         <v>5413</v>
       </c>
       <c r="E246">
-        <v>16812384</v>
+        <v>16825976</v>
       </c>
       <c r="F246" t="s">
         <v>24</v>
@@ -7774,13 +7774,13 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>23469</v>
+        <v>23552</v>
       </c>
       <c r="D247">
-        <v>3665</v>
+        <v>3669</v>
       </c>
       <c r="E247">
-        <v>71544117</v>
+        <v>71999341</v>
       </c>
       <c r="F247" t="s">
         <v>24</v>
@@ -7803,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="C248">
-        <v>34327</v>
+        <v>34460</v>
       </c>
       <c r="D248">
-        <v>8689</v>
+        <v>8692</v>
       </c>
       <c r="E248">
-        <v>63321276</v>
+        <v>63785621</v>
       </c>
       <c r="F248" t="s">
         <v>24</v>
@@ -7832,13 +7832,13 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>28418</v>
+        <v>28558</v>
       </c>
       <c r="D249">
-        <v>8941</v>
+        <v>8944</v>
       </c>
       <c r="E249">
-        <v>97064781</v>
+        <v>97868987</v>
       </c>
       <c r="F249" t="s">
         <v>25</v>
@@ -7890,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>31000</v>
+        <v>31084</v>
       </c>
       <c r="D251">
-        <v>8733</v>
+        <v>8734</v>
       </c>
       <c r="E251">
-        <v>55653278</v>
+        <v>55869491</v>
       </c>
       <c r="F251" t="s">
         <v>25</v>
@@ -7948,13 +7948,13 @@
         <v>10</v>
       </c>
       <c r="C253">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="D253">
         <v>439</v>
       </c>
       <c r="E253">
-        <v>2292819</v>
+        <v>2298992</v>
       </c>
       <c r="F253" t="s">
         <v>25</v>
@@ -7977,13 +7977,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>59557</v>
+        <v>59632</v>
       </c>
       <c r="D254">
-        <v>23860</v>
+        <v>23862</v>
       </c>
       <c r="E254">
-        <v>92804316</v>
+        <v>92975186</v>
       </c>
       <c r="F254" t="s">
         <v>25</v>
@@ -8006,13 +8006,13 @@
         <v>10</v>
       </c>
       <c r="C255">
-        <v>122438</v>
+        <v>122949</v>
       </c>
       <c r="D255">
-        <v>31770</v>
+        <v>31782</v>
       </c>
       <c r="E255">
-        <v>305500552</v>
+        <v>308274364</v>
       </c>
       <c r="F255" t="s">
         <v>25</v>
@@ -8035,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>26043</v>
+        <v>26103</v>
       </c>
       <c r="D256">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="E256">
-        <v>61119454</v>
+        <v>61313005</v>
       </c>
       <c r="F256" t="s">
         <v>25</v>
@@ -8064,13 +8064,13 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>146035</v>
+        <v>146656</v>
       </c>
       <c r="D257">
-        <v>20065</v>
+        <v>20068</v>
       </c>
       <c r="E257">
-        <v>819806109</v>
+        <v>826018923</v>
       </c>
       <c r="F257" t="s">
         <v>25</v>
@@ -8093,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>12653</v>
+        <v>12680</v>
       </c>
       <c r="D258">
         <v>2943</v>
       </c>
       <c r="E258">
-        <v>30402765</v>
+        <v>30502877</v>
       </c>
       <c r="F258" t="s">
         <v>25</v>
@@ -8122,13 +8122,13 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>5532</v>
+        <v>5547</v>
       </c>
       <c r="D259">
         <v>1532</v>
       </c>
       <c r="E259">
-        <v>11393670</v>
+        <v>11443798</v>
       </c>
       <c r="F259" t="s">
         <v>25</v>
@@ -8151,13 +8151,13 @@
         <v>10</v>
       </c>
       <c r="C260">
-        <v>20949</v>
+        <v>21021</v>
       </c>
       <c r="D260">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="E260">
-        <v>41392253</v>
+        <v>41597592</v>
       </c>
       <c r="F260" t="s">
         <v>25</v>
@@ -8180,13 +8180,13 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>67334</v>
+        <v>67516</v>
       </c>
       <c r="D261">
-        <v>16970</v>
+        <v>16972</v>
       </c>
       <c r="E261">
-        <v>179481526</v>
+        <v>180481654</v>
       </c>
       <c r="F261" t="s">
         <v>25</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C262">
-        <v>33073</v>
+        <v>33171</v>
       </c>
       <c r="D262">
         <v>8052</v>
       </c>
       <c r="E262">
-        <v>84568442</v>
+        <v>85081091</v>
       </c>
       <c r="F262" t="s">
         <v>25</v>
@@ -8267,13 +8267,13 @@
         <v>10</v>
       </c>
       <c r="C264">
-        <v>40492</v>
+        <v>40599</v>
       </c>
       <c r="D264">
-        <v>7714</v>
+        <v>7715</v>
       </c>
       <c r="E264">
-        <v>68300746</v>
+        <v>68577910</v>
       </c>
       <c r="F264" t="s">
         <v>25</v>
@@ -8296,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>41847</v>
+        <v>41885</v>
       </c>
       <c r="D265">
         <v>17095</v>
       </c>
       <c r="E265">
-        <v>55454466</v>
+        <v>55504530</v>
       </c>
       <c r="F265" t="s">
         <v>25</v>
@@ -8325,13 +8325,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>57068</v>
+        <v>57269</v>
       </c>
       <c r="D266">
-        <v>8910</v>
+        <v>8913</v>
       </c>
       <c r="E266">
-        <v>159726973</v>
+        <v>160540038</v>
       </c>
       <c r="F266" t="s">
         <v>25</v>
@@ -8354,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>75394</v>
+        <v>75628</v>
       </c>
       <c r="D267">
-        <v>19885</v>
+        <v>19887</v>
       </c>
       <c r="E267">
-        <v>132397226</v>
+        <v>133087356</v>
       </c>
       <c r="F267" t="s">
         <v>25</v>
@@ -8383,13 +8383,13 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>27243</v>
+        <v>27363</v>
       </c>
       <c r="D268">
-        <v>7884</v>
+        <v>7890</v>
       </c>
       <c r="E268">
-        <v>66916827</v>
+        <v>67436626</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -8412,13 +8412,13 @@
         <v>10</v>
       </c>
       <c r="C269">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D269">
         <v>25</v>
       </c>
       <c r="E269">
-        <v>73675</v>
+        <v>96379</v>
       </c>
       <c r="F269" t="s">
         <v>26</v>
@@ -8441,13 +8441,13 @@
         <v>10</v>
       </c>
       <c r="C270">
-        <v>34665</v>
+        <v>34777</v>
       </c>
       <c r="D270">
-        <v>9440</v>
+        <v>9442</v>
       </c>
       <c r="E270">
-        <v>62455990</v>
+        <v>62986406</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -8499,13 +8499,13 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D272">
         <v>351</v>
       </c>
       <c r="E272">
-        <v>2150292</v>
+        <v>2153192</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>83684</v>
+        <v>83811</v>
       </c>
       <c r="D273">
-        <v>29619</v>
+        <v>29621</v>
       </c>
       <c r="E273">
-        <v>128279229</v>
+        <v>128482463</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -8557,13 +8557,13 @@
         <v>10</v>
       </c>
       <c r="C274">
-        <v>145873</v>
+        <v>146446</v>
       </c>
       <c r="D274">
-        <v>35350</v>
+        <v>35360</v>
       </c>
       <c r="E274">
-        <v>348265122</v>
+        <v>351395945</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -8586,13 +8586,13 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>32982</v>
+        <v>33038</v>
       </c>
       <c r="D275">
-        <v>5941</v>
+        <v>5943</v>
       </c>
       <c r="E275">
-        <v>75874117</v>
+        <v>76056464</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -8615,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C276">
-        <v>174948</v>
+        <v>175716</v>
       </c>
       <c r="D276">
-        <v>23167</v>
+        <v>23169</v>
       </c>
       <c r="E276">
-        <v>941841644</v>
+        <v>949753519</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -8644,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>16094</v>
+        <v>16130</v>
       </c>
       <c r="D277">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="E277">
-        <v>33276418</v>
+        <v>33435826</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -8673,13 +8673,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>5997</v>
+        <v>6012</v>
       </c>
       <c r="D278">
         <v>1596</v>
       </c>
       <c r="E278">
-        <v>11057110</v>
+        <v>11080945</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -8702,13 +8702,13 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>25668</v>
+        <v>25745</v>
       </c>
       <c r="D279">
-        <v>6515</v>
+        <v>6516</v>
       </c>
       <c r="E279">
-        <v>48347608</v>
+        <v>48538807</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>81205</v>
+        <v>81435</v>
       </c>
       <c r="D280">
-        <v>19501</v>
+        <v>19504</v>
       </c>
       <c r="E280">
-        <v>219111300</v>
+        <v>220270666</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -8760,13 +8760,13 @@
         <v>10</v>
       </c>
       <c r="C281">
-        <v>37069</v>
+        <v>37156</v>
       </c>
       <c r="D281">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="E281">
-        <v>96611161</v>
+        <v>96975254</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -8789,13 +8789,13 @@
         <v>10</v>
       </c>
       <c r="C282">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D282">
         <v>8</v>
       </c>
       <c r="E282">
-        <v>41667</v>
+        <v>45669</v>
       </c>
       <c r="F282" t="s">
         <v>26</v>
@@ -8818,13 +8818,13 @@
         <v>10</v>
       </c>
       <c r="C283">
-        <v>51615</v>
+        <v>51752</v>
       </c>
       <c r="D283">
-        <v>9814</v>
+        <v>9816</v>
       </c>
       <c r="E283">
-        <v>83451164</v>
+        <v>83790378</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -8847,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="C284">
-        <v>46753</v>
+        <v>46786</v>
       </c>
       <c r="D284">
-        <v>19309</v>
+        <v>19310</v>
       </c>
       <c r="E284">
-        <v>62336105</v>
+        <v>62384259</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -8876,13 +8876,13 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>68386</v>
+        <v>68595</v>
       </c>
       <c r="D285">
-        <v>10172</v>
+        <v>10175</v>
       </c>
       <c r="E285">
-        <v>188378332</v>
+        <v>189508002</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -8905,13 +8905,13 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>79929</v>
+        <v>80213</v>
       </c>
       <c r="D286">
-        <v>20145</v>
+        <v>20148</v>
       </c>
       <c r="E286">
-        <v>135396703</v>
+        <v>136194620</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>7384</v>
+        <v>7424</v>
       </c>
       <c r="D287">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="E287">
-        <v>19496559</v>
+        <v>19790347</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -8992,13 +8992,13 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>13653</v>
+        <v>13705</v>
       </c>
       <c r="D289">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="E289">
-        <v>25033309</v>
+        <v>25156091</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -9050,13 +9050,13 @@
         <v>10</v>
       </c>
       <c r="C291">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D291">
         <v>274</v>
       </c>
       <c r="E291">
-        <v>1360513</v>
+        <v>1363432</v>
       </c>
       <c r="F291" t="s">
         <v>27</v>
@@ -9079,13 +9079,13 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <v>23120</v>
+        <v>23144</v>
       </c>
       <c r="D292">
         <v>10097</v>
       </c>
       <c r="E292">
-        <v>35966807</v>
+        <v>36017893</v>
       </c>
       <c r="F292" t="s">
         <v>27</v>
@@ -9108,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>53377</v>
+        <v>53624</v>
       </c>
       <c r="D293">
-        <v>14401</v>
+        <v>14407</v>
       </c>
       <c r="E293">
-        <v>139221110</v>
+        <v>140997168</v>
       </c>
       <c r="F293" t="s">
         <v>27</v>
@@ -9137,13 +9137,13 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>13425</v>
+        <v>13444</v>
       </c>
       <c r="D294">
         <v>2467</v>
       </c>
       <c r="E294">
-        <v>32755119</v>
+        <v>32824066</v>
       </c>
       <c r="F294" t="s">
         <v>27</v>
@@ -9166,13 +9166,13 @@
         <v>10</v>
       </c>
       <c r="C295">
-        <v>72044</v>
+        <v>72399</v>
       </c>
       <c r="D295">
         <v>9838</v>
       </c>
       <c r="E295">
-        <v>424344567</v>
+        <v>427857703</v>
       </c>
       <c r="F295" t="s">
         <v>27</v>
@@ -9195,13 +9195,13 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>7228</v>
+        <v>7261</v>
       </c>
       <c r="D296">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="E296">
-        <v>16053427</v>
+        <v>16262798</v>
       </c>
       <c r="F296" t="s">
         <v>27</v>
@@ -9224,13 +9224,13 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3337</v>
+        <v>3341</v>
       </c>
       <c r="D297">
         <v>960</v>
       </c>
       <c r="E297">
-        <v>6109953</v>
+        <v>6115953</v>
       </c>
       <c r="F297" t="s">
         <v>27</v>
@@ -9253,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="C298">
-        <v>10610</v>
+        <v>10633</v>
       </c>
       <c r="D298">
         <v>2928</v>
       </c>
       <c r="E298">
-        <v>20588695</v>
+        <v>20647525</v>
       </c>
       <c r="F298" t="s">
         <v>27</v>
@@ -9282,13 +9282,13 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>36410</v>
+        <v>36537</v>
       </c>
       <c r="D299">
-        <v>9205</v>
+        <v>9209</v>
       </c>
       <c r="E299">
-        <v>107669083</v>
+        <v>108421936</v>
       </c>
       <c r="F299" t="s">
         <v>27</v>
@@ -9311,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>13078</v>
+        <v>13114</v>
       </c>
       <c r="D300">
         <v>3312</v>
       </c>
       <c r="E300">
-        <v>45315069</v>
+        <v>45587429</v>
       </c>
       <c r="F300" t="s">
         <v>27</v>
@@ -9340,13 +9340,13 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <v>17071</v>
+        <v>17117</v>
       </c>
       <c r="D301">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="E301">
-        <v>30797661</v>
+        <v>30915759</v>
       </c>
       <c r="F301" t="s">
         <v>27</v>
@@ -9369,13 +9369,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>23077</v>
+        <v>23087</v>
       </c>
       <c r="D302">
         <v>9592</v>
       </c>
       <c r="E302">
-        <v>30284016</v>
+        <v>30305914</v>
       </c>
       <c r="F302" t="s">
         <v>27</v>
@@ -9398,13 +9398,13 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>31696</v>
+        <v>31825</v>
       </c>
       <c r="D303">
-        <v>5113</v>
+        <v>5114</v>
       </c>
       <c r="E303">
-        <v>93675526</v>
+        <v>94368156</v>
       </c>
       <c r="F303" t="s">
         <v>27</v>
@@ -9427,13 +9427,13 @@
         <v>10</v>
       </c>
       <c r="C304">
-        <v>38405</v>
+        <v>38527</v>
       </c>
       <c r="D304">
-        <v>10248</v>
+        <v>10250</v>
       </c>
       <c r="E304">
-        <v>72984830</v>
+        <v>73462266</v>
       </c>
       <c r="F304" t="s">
         <v>27</v>
@@ -9456,13 +9456,13 @@
         <v>10</v>
       </c>
       <c r="C305">
-        <v>12294</v>
+        <v>12344</v>
       </c>
       <c r="D305">
-        <v>3525</v>
+        <v>3529</v>
       </c>
       <c r="E305">
-        <v>35656972</v>
+        <v>35975374</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -9514,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>34413</v>
+        <v>34527</v>
       </c>
       <c r="D307">
-        <v>8836</v>
+        <v>8839</v>
       </c>
       <c r="E307">
-        <v>71262710</v>
+        <v>71563494</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -9543,13 +9543,13 @@
         <v>10</v>
       </c>
       <c r="C308">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D308">
         <v>47</v>
       </c>
       <c r="E308">
-        <v>355311</v>
+        <v>365311</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -9572,13 +9572,13 @@
         <v>10</v>
       </c>
       <c r="C309">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D309">
         <v>176</v>
       </c>
       <c r="E309">
-        <v>1022413</v>
+        <v>1032413</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -9601,13 +9601,13 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>77480</v>
+        <v>77620</v>
       </c>
       <c r="D310">
-        <v>25993</v>
+        <v>25996</v>
       </c>
       <c r="E310">
-        <v>123354394</v>
+        <v>123649455</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -9630,13 +9630,13 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>164042</v>
+        <v>164674</v>
       </c>
       <c r="D311">
-        <v>37281</v>
+        <v>37298</v>
       </c>
       <c r="E311">
-        <v>424658265</v>
+        <v>428075482</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -9659,13 +9659,13 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <v>62343</v>
+        <v>62489</v>
       </c>
       <c r="D312">
-        <v>9206</v>
+        <v>9216</v>
       </c>
       <c r="E312">
-        <v>156126140</v>
+        <v>156651562</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>178400</v>
+        <v>179100</v>
       </c>
       <c r="D313">
-        <v>23099</v>
+        <v>23103</v>
       </c>
       <c r="E313">
-        <v>1057230229</v>
+        <v>1064331292</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>17637</v>
+        <v>17689</v>
       </c>
       <c r="D314">
         <v>3798</v>
       </c>
       <c r="E314">
-        <v>40269052</v>
+        <v>40460613</v>
       </c>
       <c r="F314" t="s">
         <v>28</v>
@@ -9746,13 +9746,13 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>7196</v>
+        <v>7212</v>
       </c>
       <c r="D315">
         <v>1764</v>
       </c>
       <c r="E315">
-        <v>14375461</v>
+        <v>14425808</v>
       </c>
       <c r="F315" t="s">
         <v>28</v>
@@ -9775,13 +9775,13 @@
         <v>10</v>
       </c>
       <c r="C316">
-        <v>33823</v>
+        <v>33942</v>
       </c>
       <c r="D316">
-        <v>7996</v>
+        <v>8000</v>
       </c>
       <c r="E316">
-        <v>71229194</v>
+        <v>71677973</v>
       </c>
       <c r="F316" t="s">
         <v>28</v>
@@ -9804,13 +9804,13 @@
         <v>10</v>
       </c>
       <c r="C317">
-        <v>88363</v>
+        <v>88612</v>
       </c>
       <c r="D317">
-        <v>20912</v>
+        <v>20919</v>
       </c>
       <c r="E317">
-        <v>233165082</v>
+        <v>234754586</v>
       </c>
       <c r="F317" t="s">
         <v>28</v>
@@ -9833,13 +9833,13 @@
         <v>10</v>
       </c>
       <c r="C318">
-        <v>49130</v>
+        <v>49279</v>
       </c>
       <c r="D318">
-        <v>10759</v>
+        <v>10761</v>
       </c>
       <c r="E318">
-        <v>145939108</v>
+        <v>146848366</v>
       </c>
       <c r="F318" t="s">
         <v>28</v>
@@ -9891,13 +9891,13 @@
         <v>10</v>
       </c>
       <c r="C320">
-        <v>56803</v>
+        <v>56988</v>
       </c>
       <c r="D320">
-        <v>10194</v>
+        <v>10196</v>
       </c>
       <c r="E320">
-        <v>100272274</v>
+        <v>100727265</v>
       </c>
       <c r="F320" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>10</v>
       </c>
       <c r="C321">
-        <v>43256</v>
+        <v>43289</v>
       </c>
       <c r="D321">
         <v>17344</v>
       </c>
       <c r="E321">
-        <v>57408847</v>
+        <v>57451747</v>
       </c>
       <c r="F321" t="s">
         <v>28</v>
@@ -9949,13 +9949,13 @@
         <v>10</v>
       </c>
       <c r="C322">
-        <v>64818</v>
+        <v>65022</v>
       </c>
       <c r="D322">
-        <v>9496</v>
+        <v>9499</v>
       </c>
       <c r="E322">
-        <v>187406270</v>
+        <v>188265668</v>
       </c>
       <c r="F322" t="s">
         <v>28</v>
@@ -9978,13 +9978,13 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>82380</v>
+        <v>82647</v>
       </c>
       <c r="D323">
-        <v>19739</v>
+        <v>19741</v>
       </c>
       <c r="E323">
-        <v>147416814</v>
+        <v>148285423</v>
       </c>
       <c r="F323" t="s">
         <v>28</v>
